--- a/流程.xlsx
+++ b/流程.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>1.引入bootstrap，添加样式和页面</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>第21章 08/18</t>
+  </si>
+  <si>
+    <t>访问授权app</t>
+  </si>
+  <si>
+    <t>client_id=0233f5bf1978fea2e062</t>
+  </si>
+  <si>
+    <t>redirect_uri=http://localhost:8081/callback&amp;&amp;scope=user&amp;&amp;state=1</t>
+  </si>
+  <si>
+    <t>带回code</t>
+  </si>
+  <si>
+    <t>https://github.com/login/oauth/access_token</t>
+  </si>
+  <si>
+    <t>待回token</t>
   </si>
   <si>
     <t>index</t>
@@ -86,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +127,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -116,15 +156,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,105 +261,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +476,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,51 +562,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +580,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,118 +601,117 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,15 +783,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8255</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:colOff>480695</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -791,7 +808,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="8255" y="635"/>
           <a:ext cx="12054840" cy="3764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -850,15 +867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -875,8 +892,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9639300"/>
-          <a:ext cx="7566660" cy="5044440"/>
+          <a:off x="7620" y="9631680"/>
+          <a:ext cx="7947660" cy="5302885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,7 +1191,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1182,7 +1199,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1190,7 +1207,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1198,12 +1215,12 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1226,7 +1243,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1244,35 +1261,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B90:D93"/>
+  <dimension ref="B60:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
+    <row r="60" spans="14:14">
+      <c r="N60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14">
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14">
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14">
+      <c r="N64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14">
+      <c r="N66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14">
+      <c r="N67" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D91" r:id="rId2" display="https://github.com/login/oauth/authorize?client_id=13c76186ed2b03a98721&amp;&amp;redirect_uri=http://localhost:8080/callback&amp;&amp;scope=user&amp;&amp;state=1"/>
+    <hyperlink ref="N66" r:id="rId3" display="https://github.com/login/oauth/access_token"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1293,12 +1341,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
